--- a/InputFields.xlsx
+++ b/InputFields.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmodi/Desktop/python-word/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmodi/GitHub/python-excel-to-word/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CB916A-260E-3E4B-A422-55276BD9A110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3DA42C-CEBA-2C49-9339-C8DB008F617B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="5980" windowWidth="18900" windowHeight="10500" tabRatio="750" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4900" yWindow="5980" windowWidth="18900" windowHeight="10500" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="App-1" sheetId="11" r:id="rId1"/>
@@ -449,9 +449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9513AE-56CA-4384-AF0F-1C95C77888FF}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -493,9 +491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522E4245-AFA5-E044-B6D5-2B9B03AE0DB0}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>

--- a/InputFields.xlsx
+++ b/InputFields.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmodi/GitHub/python-excel-to-word/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3DA42C-CEBA-2C49-9339-C8DB008F617B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857680FD-EC09-F245-BEDA-535AB15EA8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="5980" windowWidth="18900" windowHeight="10500" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13200" yWindow="4240" windowWidth="21360" windowHeight="15420" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="App-1" sheetId="11" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>Variable Name</t>
   </si>
@@ -46,29 +46,80 @@
     <t>Value</t>
   </si>
   <si>
-    <t>app_name</t>
-  </si>
-  <si>
-    <t>MyApp1</t>
-  </si>
-  <si>
-    <t>server_name</t>
-  </si>
-  <si>
-    <t>MyApp1-Server</t>
-  </si>
-  <si>
-    <t>MyApp2</t>
-  </si>
-  <si>
-    <t>MyApp2-Server</t>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>VENDOR</t>
+  </si>
+  <si>
+    <t>AUTHOR</t>
+  </si>
+  <si>
+    <t>My DOCUMENT OWNER</t>
+  </si>
+  <si>
+    <t>My DOCUMENT OWNER TITLE</t>
+  </si>
+  <si>
+    <t>My VENDOR</t>
+  </si>
+  <si>
+    <t>My AUTHOR</t>
+  </si>
+  <si>
+    <t>DOCUMENT OWNER</t>
+  </si>
+  <si>
+    <t>DOCUMENT OWNER TITLE</t>
+  </si>
+  <si>
+    <t># Hours, ## Minutes</t>
+  </si>
+  <si>
+    <t>RPO</t>
+  </si>
+  <si>
+    <t>My RPO</t>
+  </si>
+  <si>
+    <t>RTO</t>
+  </si>
+  <si>
+    <t>MY RTO</t>
+  </si>
+  <si>
+    <t>MAO</t>
+  </si>
+  <si>
+    <t>My MAO</t>
+  </si>
+  <si>
+    <t>SysAdminAccount</t>
+  </si>
+  <si>
+    <t>DbAdminAccount</t>
+  </si>
+  <si>
+    <t>[domain1.net]\[@SYS-SERVER]</t>
+  </si>
+  <si>
+    <t>[domain1.net]\[@DB-SERVER]</t>
+  </si>
+  <si>
+    <t>ESTIMATED RECOVERY TIME</t>
+  </si>
+  <si>
+    <t>My Title2</t>
+  </si>
+  <si>
+    <t>My Title1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +145,12 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -447,14 +504,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9513AE-56CA-4384-AF0F-1C95C77888FF}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -469,34 +526,109 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+      <c r="B2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522E4245-AFA5-E044-B6D5-2B9B03AE0DB0}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83B8899-AE2B-3442-8B94-9B53954B9B3C}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -511,16 +643,88 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
+      <c r="B2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/InputFields.xlsx
+++ b/InputFields.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmodi/GitHub/python-excel-to-word/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857680FD-EC09-F245-BEDA-535AB15EA8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19E0953-D726-3F47-81F1-A6669CD8D14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13200" yWindow="4240" windowWidth="21360" windowHeight="15420" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13200" yWindow="4240" windowWidth="21360" windowHeight="15420" tabRatio="750" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="App-1" sheetId="11" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>Variable Name</t>
   </si>
@@ -55,57 +55,27 @@
     <t>AUTHOR</t>
   </si>
   <si>
-    <t>My DOCUMENT OWNER</t>
-  </si>
-  <si>
-    <t>My DOCUMENT OWNER TITLE</t>
-  </si>
-  <si>
-    <t>My VENDOR</t>
-  </si>
-  <si>
-    <t>My AUTHOR</t>
-  </si>
-  <si>
     <t>DOCUMENT OWNER</t>
   </si>
   <si>
     <t>DOCUMENT OWNER TITLE</t>
   </si>
   <si>
-    <t># Hours, ## Minutes</t>
-  </si>
-  <si>
     <t>RPO</t>
   </si>
   <si>
-    <t>My RPO</t>
-  </si>
-  <si>
     <t>RTO</t>
   </si>
   <si>
-    <t>MY RTO</t>
-  </si>
-  <si>
     <t>MAO</t>
   </si>
   <si>
-    <t>My MAO</t>
-  </si>
-  <si>
     <t>SysAdminAccount</t>
   </si>
   <si>
     <t>DbAdminAccount</t>
   </si>
   <si>
-    <t>[domain1.net]\[@SYS-SERVER]</t>
-  </si>
-  <si>
-    <t>[domain1.net]\[@DB-SERVER]</t>
-  </si>
-  <si>
     <t>ESTIMATED RECOVERY TIME</t>
   </si>
   <si>
@@ -113,6 +83,66 @@
   </si>
   <si>
     <t>My Title1</t>
+  </si>
+  <si>
+    <t>My DOCUMENT OWNER1</t>
+  </si>
+  <si>
+    <t>My DOCUMENT OWNER TITLE1</t>
+  </si>
+  <si>
+    <t>My VENDOR1</t>
+  </si>
+  <si>
+    <t>My AUTHOR1</t>
+  </si>
+  <si>
+    <t># Hours, ## Minutes1</t>
+  </si>
+  <si>
+    <t>My RPO1</t>
+  </si>
+  <si>
+    <t>MY RTO1</t>
+  </si>
+  <si>
+    <t>My MAO1</t>
+  </si>
+  <si>
+    <t>[domain1.net]\[@SYS-SERVER]1</t>
+  </si>
+  <si>
+    <t>[domain1.net]\[@DB-SERVER]1</t>
+  </si>
+  <si>
+    <t>My DOCUMENT OWNER2</t>
+  </si>
+  <si>
+    <t>My DOCUMENT OWNER TITLE2</t>
+  </si>
+  <si>
+    <t>My VENDOR2</t>
+  </si>
+  <si>
+    <t>My AUTHOR2</t>
+  </si>
+  <si>
+    <t># Hours, ## Minutes2</t>
+  </si>
+  <si>
+    <t>My RPO2</t>
+  </si>
+  <si>
+    <t>MY RTO2</t>
+  </si>
+  <si>
+    <t>My MAO2</t>
+  </si>
+  <si>
+    <t>[domain2.net]\[@SYS-SERVER]2</t>
+  </si>
+  <si>
+    <t>[domain2.net]\[@DB-SERVER]2</t>
   </si>
 </sst>
 </file>
@@ -506,7 +536,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9513AE-56CA-4384-AF0F-1C95C77888FF}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -527,23 +559,23 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -551,7 +583,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -559,55 +591,55 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -621,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83B8899-AE2B-3442-8B94-9B53954B9B3C}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -644,23 +676,23 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -668,7 +700,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -676,55 +708,55 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
